--- a/DotNet/Config/Excel/Server/SceneConfig.xlsx
+++ b/DotNet/Config/Excel/Server/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Demo/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\TEngineNiCS\DotNet\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92296121-0711-6D40-8561-F203ABF3944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413E2B0-493B-4759-A03D-C264D141648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="5470" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -18,18 +18,6 @@
     <sheet name="SceneSubTypeConfig" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -737,11 +725,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="13" customWidth="1"/>
@@ -800,7 +788,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="16.5">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -832,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="16.5">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -864,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -896,7 +884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -918,7 +906,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -933,7 +921,7 @@
         <v>1024</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>34</v>
@@ -951,7 +939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B8" s="6">
         <f>B7+1</f>
         <v>2</v>
@@ -981,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B9" s="6">
         <f t="shared" ref="B9:B10" si="1">B8+1</f>
         <v>3</v>
@@ -1011,7 +999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="16">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.5">
       <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1071,11 +1059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3B333A-6462-3D48-AFCB-3CEC23B6A23C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1083,7 +1071,7 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1116,7 +1104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
@@ -1139,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A6" s="7">
         <f t="shared" ref="A6" si="0">A5+1</f>
         <v>4</v>
@@ -1165,7 +1153,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1173,7 +1161,7 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1195,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1206,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1217,7 +1205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>3</v>
@@ -1229,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="15.5">
       <c r="A6" s="7">
         <f t="shared" ref="A6" si="0">A5+1</f>
         <v>4</v>
